--- a/classfiers/chain/elm/smote/chain_elm__smote_results.xlsx
+++ b/classfiers/chain/elm/smote/chain_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.851145038167939</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9612068965517241</v>
+        <v>0.2797927461139896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.902834008097166</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9166223606258544</v>
+        <v>0.5425396110235038</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8308270676691729</v>
+        <v>0.691358024691358</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9075975359342916</v>
+        <v>0.3875432525951557</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9218601467736416</v>
+        <v>0.6063075921474359</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.331578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.4077669902912621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9485159817351598</v>
+        <v>0.5943358395989975</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8844621513944223</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9652173913043478</v>
+        <v>0.3419689119170984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.4258064516129033</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9329029808239984</v>
+        <v>0.5976910307359524</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8185328185328186</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9464285714285714</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8778467908902693</v>
+        <v>0.3870967741935483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9067460317460317</v>
+        <v>0.5962841253791709</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8577626459221014</v>
+        <v>0.5861474030307881</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9704039051902619</v>
+        <v>0.3003282284144277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.91027105159973</v>
+        <v>0.3941259152150839</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9253295003409372</v>
+        <v>0.5874316397770121</v>
       </c>
     </row>
   </sheetData>
